--- a/medicine/Enfance/Falzar_(auteur)/Falzar_(auteur).xlsx
+++ b/medicine/Enfance/Falzar_(auteur)/Falzar_(auteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François D'Hont, dit Falzar, né le 15 avril 1961 à Mons (province de Hainaut), est un scénariste de bande dessinée humoristique belge.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François D'Hont naît le 15 avril 1961 à Mons[1]. Lecteur passionné dès son enfance de livres et de bandes dessinées, il s'amuse à dessiner mais surtout, à écrire des histoires[1]. Il suit une formation d'instituteur, puis il change d'orientation et suit des cours de criminologie. Après avoir obtenu sa licence[2], il se réoriente à nouveau et commence sa carrière professionnelle comme animateur dans le cadre d'un hôpital psychiatrique[1]. En 1991, il fait une rencontre marquante en la personne d'un voisin, lui aussi instituteur et amateur de bande dessinée : Zidrou. Ensemble, ils vont faire le tour des éditeurs et fonder une sorte de studio. Ils font leur entrée au journal de Spirou[3] aux côtés de la dessinatrice Carine De Brab avec un court récit en 3 planches intitulé La Triste Fin du père Noël. Ce même trio voit leur première grande série lancée chez Casterman : Margot et Oscar Pluche elle compte six albums publiés de 1992 à 1997, puis la série est renommée Sac à puces, en hommage au héros principal du récit, le chien de Margot, qui vit une existence quasi clandestine au foyer de la petite fille. Elle sera désormais prépubliée dans Spirou et compte 9 albums publiés aux éditions marcinelloises Dupuis de 1999 à 2009. Chaque volume de cette chronique familiale délivre un petit message[1]. Parallèlement, Thierry Tinlot, rédacteur en chef de Spirou confie à ce duo de scénaristes, nombre d'animations du journal pour lequel il adoptera le pseudonyme commun Les Potaches. Avec ou sans Zidrou, il participe aussi activement à l'animation de l'hebdomadaire, rédigeant des gags et autres courtes histoires complètes pour de nombreux dessinateurs, parmi lesquels il engagera de futures collaborations[1]. Ainsi, pour le dessinateur Blatte, il scénarise les exploits de Johnny Têtard[4], série à la vie éphémère crée en 1998.
-Il crée au début des années 1990, la série Max et Bouzouki avec David Evrard au dessin pour la revue Bonjour[1] des Éditions Averbode.
-Max et Bouzouki[5] obtiennent leur propre mensuel éponyme en 2004[6] (112 numéros au compteur et 15 albums édités chez Kennes éditions)[7]. Il publie un petit album de BD à destination des jeunes lecteurs Lou et Loulou en septembre 1996 dans la collection Les Potaches aux éditions Bilboquet d'Averbode[1]). À destination de ce même lectorat, il crée encore les séries Rose et Grouk-Grouk et La Famille Monstre.
-En 2009, les éditions Vents d'Ouest éditent sa série Edwin et les Twins (dessin David Evrard)[6].
-En octobre 2009, Edwin et les Twins reçoit le Grand Prix des Lecteurs du Journal de Mickey[8],[6].
-Il aborde l'univers politique, en publiant Bad Bartje — l'enfance fantasmée de Bart De Wever, politicien flamand séparatiste —, dessiné par Marco Paulo chez Kennes éditions en 2014. En 2017, en collaboration avec Zidrou, il adapte en bande dessinée le succès établi best-seller de Romain Puértolas sur un dessin de Kyung Eun Park, pour l'éditeur Jungle. L'univers du film Les Tuche est à la base des gags de Falzar qu'illustre Marco Paulo dans deux albums parus chez Michel Lafon en 2017-2018 et pour Kennes éditions. En mars 2023, il lance le même jour deux séries aux éditions Kennes : Les Chicoufs avec Serge Carrère et Mon papy Titanic avec Marco Paulo. En septembre de la même année, il écrit le scénario de Sac'ados pour la dessinatrice Pacotine aux mêmes éditions qui met en scène quatre adolescents fréquentant le même établissement scolaire[9].
-Par ailleurs, Falzar écrit des pièces de théâtre ainsi que des chansons[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François D'Hont naît le 15 avril 1961 à Mons. Lecteur passionné dès son enfance de livres et de bandes dessinées, il s'amuse à dessiner mais surtout, à écrire des histoires. Il suit une formation d'instituteur, puis il change d'orientation et suit des cours de criminologie. Après avoir obtenu sa licence, il se réoriente à nouveau et commence sa carrière professionnelle comme animateur dans le cadre d'un hôpital psychiatrique. En 1991, il fait une rencontre marquante en la personne d'un voisin, lui aussi instituteur et amateur de bande dessinée : Zidrou. Ensemble, ils vont faire le tour des éditeurs et fonder une sorte de studio. Ils font leur entrée au journal de Spirou aux côtés de la dessinatrice Carine De Brab avec un court récit en 3 planches intitulé La Triste Fin du père Noël. Ce même trio voit leur première grande série lancée chez Casterman : Margot et Oscar Pluche elle compte six albums publiés de 1992 à 1997, puis la série est renommée Sac à puces, en hommage au héros principal du récit, le chien de Margot, qui vit une existence quasi clandestine au foyer de la petite fille. Elle sera désormais prépubliée dans Spirou et compte 9 albums publiés aux éditions marcinelloises Dupuis de 1999 à 2009. Chaque volume de cette chronique familiale délivre un petit message. Parallèlement, Thierry Tinlot, rédacteur en chef de Spirou confie à ce duo de scénaristes, nombre d'animations du journal pour lequel il adoptera le pseudonyme commun Les Potaches. Avec ou sans Zidrou, il participe aussi activement à l'animation de l'hebdomadaire, rédigeant des gags et autres courtes histoires complètes pour de nombreux dessinateurs, parmi lesquels il engagera de futures collaborations. Ainsi, pour le dessinateur Blatte, il scénarise les exploits de Johnny Têtard, série à la vie éphémère crée en 1998.
+Il crée au début des années 1990, la série Max et Bouzouki avec David Evrard au dessin pour la revue Bonjour des Éditions Averbode.
+Max et Bouzouki obtiennent leur propre mensuel éponyme en 2004 (112 numéros au compteur et 15 albums édités chez Kennes éditions). Il publie un petit album de BD à destination des jeunes lecteurs Lou et Loulou en septembre 1996 dans la collection Les Potaches aux éditions Bilboquet d'Averbode). À destination de ce même lectorat, il crée encore les séries Rose et Grouk-Grouk et La Famille Monstre.
+En 2009, les éditions Vents d'Ouest éditent sa série Edwin et les Twins (dessin David Evrard).
+En octobre 2009, Edwin et les Twins reçoit le Grand Prix des Lecteurs du Journal de Mickey,.
+Il aborde l'univers politique, en publiant Bad Bartje — l'enfance fantasmée de Bart De Wever, politicien flamand séparatiste —, dessiné par Marco Paulo chez Kennes éditions en 2014. En 2017, en collaboration avec Zidrou, il adapte en bande dessinée le succès établi best-seller de Romain Puértolas sur un dessin de Kyung Eun Park, pour l'éditeur Jungle. L'univers du film Les Tuche est à la base des gags de Falzar qu'illustre Marco Paulo dans deux albums parus chez Michel Lafon en 2017-2018 et pour Kennes éditions. En mars 2023, il lance le même jour deux séries aux éditions Kennes : Les Chicoufs avec Serge Carrère et Mon papy Titanic avec Marco Paulo. En septembre de la même année, il écrit le scénario de Sac'ados pour la dessinatrice Pacotine aux mêmes éditions qui met en scène quatre adolescents fréquentant le même établissement scolaire.
+Par ailleurs, Falzar écrit des pièces de théâtre ainsi que des chansons.
 </t>
         </is>
       </c>
@@ -548,10 +562,12 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Falzar est père de cinq enfants[10].
-Il demeure à Ottignies dans le Brabant wallon en 2009[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falzar est père de cinq enfants.
+Il demeure à Ottignies dans le Brabant wallon en 2009.
 </t>
         </is>
       </c>
@@ -582,10 +598,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Albums de bande dessinée
-Liste sélective
-Livres Jeunesse
-Lou et Loulou
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste sélective
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Falzar_(auteur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Falzar_(auteur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres publiées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres Jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lou et Loulou
 Lou et Loulou font les fous, Zidrou (Coscénario), Hugo Van Look (Illustrations), Bilboquet-Valbert coll. « Les Potaches », septembre 1996  (ISBN 9782841810420)
 Vacances joyeuses
 Vacances joyeuses, Olivier Latyk (Illustrations), Casterman, coll. « Romans Six Et Plus » no 199, 18 mars 2002  (ISBN 9782203128675)
@@ -599,9 +655,47 @@
 La Famille Monstre débarque à la piscine, Nikol (Illustrations), Rageot, 5 juin 2019  (ISBN 9782700259759)
 La Famille Monstre a peur du noir, Nikol (Illustrations), Rageot, 4 septembre 2019  (ISBN 9782700259780)
 Le Noël de la famille Monstre, Nikol (Illustrations), Rageot, 14 octobre 2020  (ISBN 9782700259803)
-Bonne fête papa Monstre !, Nikol (Illustrations), Rageot, 5 mai 2021  (ISBN 9782700259797)
-Grandir avec les Schtroumpfs
-Grandir avec les Schtroumpfs est une série de dix histoires de 40 pages chacune publiées chez Le Lombard à partir d'août 2020 et destinés aux enfants à partir de trois ans. Dans ces histoires, les Schtroumpfs sont confrontés à des problèmes de la vie quotidienne, du type de ceux que peuvent également rencontrer les jeunes enfants. Chaque album s'accompagne d'un dossier pédagogique rédigé par Diane Drory.
+Bonne fête papa Monstre !, Nikol (Illustrations), Rageot, 5 mai 2021  (ISBN 9782700259797)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Falzar_(auteur)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Falzar_(auteur)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres publiées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres Jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Grandir avec les Schtroumpfs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Grandir avec les Schtroumpfs est une série de dix histoires de 40 pages chacune publiées chez Le Lombard à partir d'août 2020 et destinés aux enfants à partir de trois ans. Dans ces histoires, les Schtroumpfs sont confrontés à des problèmes de la vie quotidienne, du type de ceux que peuvent également rencontrer les jeunes enfants. Chaque album s'accompagne d'un dossier pédagogique rédigé par Diane Drory.
 Scénario : Thierry Culliford, Falzar - Dessin : Dalena
 Liste des titres :
 Le Schtroumpf qui avait peur du noir  (ISBN 9782390570004)
@@ -613,9 +707,43 @@
 Le Schtroumpf qui voulait tout tout de suite  (ISBN 9782390570066)
 Le Schtroumpf qui jetait ses déchets n'importe où  (ISBN 9782390570073)
 Le Schtroumpf qui avait perdu un ami  (ISBN 9782390570080)
-Le Schtroumpf qui se sentait rejeté  (ISBN 9782803680320)
-One shots
-L'Extraordinaire Voyage du fakir qui était resté coincé dans une armoire Ikéa, Éditions Jungle, 2017Scénario : Falzar, Zidrou (adaptation du roman éponyme de Romain Puértolas) - Dessin : Kyung Eun Park, Samir Dahmani - Couleurs : 1ver2ânes -  (ISBN 978-2-8222-1584-8)</t>
+Le Schtroumpf qui se sentait rejeté  (ISBN 9782803680320)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Falzar_(auteur)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Falzar_(auteur)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres publiées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>One shots</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'Extraordinaire Voyage du fakir qui était resté coincé dans une armoire Ikéa, Éditions Jungle, 2017Scénario : Falzar, Zidrou (adaptation du roman éponyme de Romain Puértolas) - Dessin : Kyung Eun Park, Samir Dahmani - Couleurs : 1ver2ânes -  (ISBN 978-2-8222-1584-8)</t>
         </is>
       </c>
     </row>
